--- a/biology/Botanique/Berbéris/Berbéris.xlsx
+++ b/biology/Botanique/Berbéris/Berbéris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Berb%C3%A9ris</t>
+          <t>Berbéris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berberis
 Le genre Berberis (les berbéris) regroupe environ 450 à 500 espèces d'arbustes épineux à feuilles caduques et à feuilles persistantes de 0,1 à 4,5 m de hauteur, originaire des régions tempérées et subtropicales d'Europe, d'Asie, d'Afrique, et d'Amérique.  Ils sont étroitement liés au genre Mahonia (qui est parfois inclus dans le genre Berberis à cause des hybrides × mahoberberis).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Berb%C3%A9ris</t>
+          <t>Berbéris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbustes ou des arbrisseaux dont la hauteur varie de 0,1 à 4,5 m (certains individus atteignent exceptionnellement 8 m)[1]. Les feuilles sont alternes et généralement dotées d'un pétiole.
-L'inflorescence est en position terminale sur les rameaux. Les fleurs sont assez petites (3 à 8 mm[1]), généralement en grappe, mais parfois solitaires ou en ombelle chez certaines espèces. Elles sont précédées par 3 bractéoles caduques en forme d’écaille. Chaque fleur est composé de 6 sépales jaunes qui tombent peu après la formation de la fleur, 6 pétales jaunes portant des glandes nectarifères, 6 étamines dont les anthères s'ouvrent par un système de valves et produisant un pollen à l'exine ponctuée. L'ovaire a une forme de massue et porte un seul style.
-Les fruits sont des baies de forme arrondie, ovoïde ou ellipsoïde. Ils contiennent de 1 à 10 graines[1] selon les espèces et leur couleur peut aller du brun ou brun-rouge au noir. Les baies séchées de Berberis vulgaris, l'épine vinette, sont appréciées en cuisine iranienne sous le nom de zereshk.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbustes ou des arbrisseaux dont la hauteur varie de 0,1 à 4,5 m (certains individus atteignent exceptionnellement 8 m). Les feuilles sont alternes et généralement dotées d'un pétiole.
+L'inflorescence est en position terminale sur les rameaux. Les fleurs sont assez petites (3 à 8 mm), généralement en grappe, mais parfois solitaires ou en ombelle chez certaines espèces. Elles sont précédées par 3 bractéoles caduques en forme d’écaille. Chaque fleur est composé de 6 sépales jaunes qui tombent peu après la formation de la fleur, 6 pétales jaunes portant des glandes nectarifères, 6 étamines dont les anthères s'ouvrent par un système de valves et produisant un pollen à l'exine ponctuée. L'ovaire a une forme de massue et porte un seul style.
+Les fruits sont des baies de forme arrondie, ovoïde ou ellipsoïde. Ils contiennent de 1 à 10 graines selon les espèces et leur couleur peut aller du brun ou brun-rouge au noir. Les baies séchées de Berberis vulgaris, l'épine vinette, sont appréciées en cuisine iranienne sous le nom de zereshk.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Berb%C3%A9ris</t>
+          <t>Berbéris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Berberis aetnensis
